--- a/KPN_model_comparison_interaction_vs_additive.xlsx
+++ b/KPN_model_comparison_interaction_vs_additive.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,6 +594,27 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TZP</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>9555.077980348269</v>
+      </c>
+      <c r="C12">
+        <v>9491.9783711322</v>
+      </c>
+      <c r="D12">
+        <v>3.661285289874389e-14</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Model 2 (* Hospital)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
